--- a/data/trans_bre/P38C-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P38C-Estudios-trans_bre.xlsx
@@ -541,7 +541,7 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
@@ -551,7 +551,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">

--- a/data/trans_bre/P38C-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P38C-Estudios-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -581,22 +581,22 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,4</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,81</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,98%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,29%</t>
         </is>
       </c>
     </row>
@@ -609,22 +609,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,82; 7,52</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,18; 7,32</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,03; 8,73</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,19; 8,49</t>
         </is>
       </c>
     </row>
@@ -641,22 +641,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,59</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,29</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,33%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>11,05%</t>
         </is>
       </c>
     </row>
@@ -669,22 +669,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,1; 8,96</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,44; 15,56</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,07; 11,55</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,75; 22,52</t>
         </is>
       </c>
     </row>
@@ -701,22 +701,22 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,09</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,76</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,83%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,97%</t>
         </is>
       </c>
     </row>
@@ -729,22 +729,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,27; 7,95</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,42; 10,09</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,54; 10,13</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,66; 12,7</t>
         </is>
       </c>
     </row>
@@ -761,22 +761,22 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,95</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,57</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,31%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>9,61%</t>
         </is>
       </c>
     </row>
@@ -789,22 +789,22 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,97; 7,72</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,05; 11,86</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,79; 9,6</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,3; 15,8</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P38C-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P38C-Estudios-trans_bre.xlsx
@@ -586,7 +586,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>3,81</t>
+          <t>3,95</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -596,7 +596,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>4,29%</t>
+          <t>4,43%</t>
         </is>
       </c>
     </row>
@@ -614,7 +614,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,18; 7,32</t>
+          <t>0,61; 7,39</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -624,7 +624,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,19; 8,49</t>
+          <t>0,68; 8,48</t>
         </is>
       </c>
     </row>
@@ -646,7 +646,7 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>8,29</t>
+          <t>14,05</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
@@ -656,7 +656,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>11,05%</t>
+          <t>20,31%</t>
         </is>
       </c>
     </row>
@@ -674,7 +674,7 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>4,44; 15,56</t>
+          <t>3,32; 35,91</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -684,7 +684,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>5,75; 22,52</t>
+          <t>4,22; 74,28</t>
         </is>
       </c>
     </row>
@@ -706,7 +706,7 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>5,76</t>
+          <t>6,29</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
@@ -716,7 +716,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>6,97%</t>
+          <t>7,62%</t>
         </is>
       </c>
     </row>
@@ -734,7 +734,7 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,42; 10,09</t>
+          <t>1,78; 11,46</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -744,7 +744,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,66; 12,7</t>
+          <t>2,19; 14,74</t>
         </is>
       </c>
     </row>
@@ -766,7 +766,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>7,57</t>
+          <t>11,62</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -776,7 +776,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>9,61%</t>
+          <t>15,57%</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>5,05; 11,86</t>
+          <t>4,52; 27,1</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -804,7 +804,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>6,3; 15,8</t>
+          <t>5,57; 44,79</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P38C-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P38C-Estudios-trans_bre.xlsx
@@ -609,22 +609,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,82; 7,52</t>
+          <t>1,5; 7,17</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,61; 7,39</t>
+          <t>0,71; 7,91</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,03; 8,73</t>
+          <t>1,64; 8,28</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,68; 8,48</t>
+          <t>0,78; 9,17</t>
         </is>
       </c>
     </row>
@@ -669,22 +669,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>4,1; 8,96</t>
+          <t>4,16; 8,93</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,32; 35,91</t>
+          <t>3,85; 40,71</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>5,07; 11,55</t>
+          <t>5,06; 11,37</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>4,22; 74,28</t>
+          <t>5,01; 90,21</t>
         </is>
       </c>
     </row>
@@ -729,22 +729,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,27; 7,95</t>
+          <t>-1,66; 7,46</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,78; 11,46</t>
+          <t>2,57; 12,53</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,54; 10,13</t>
+          <t>-1,99; 9,68</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,19; 14,74</t>
+          <t>3,01; 16,1</t>
         </is>
       </c>
     </row>
@@ -789,22 +789,22 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>3,97; 7,72</t>
+          <t>4,31; 7,76</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>4,52; 27,1</t>
+          <t>5,0; 31,47</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>4,79; 9,6</t>
+          <t>5,21; 9,65</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>5,57; 44,79</t>
+          <t>6,26; 55,6</t>
         </is>
       </c>
     </row>
